--- a/Tables_data/Species Lists_Proportions/merged_SppList_Prop_2023.xlsx
+++ b/Tables_data/Species Lists_Proportions/merged_SppList_Prop_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alissa.iverson\.ssh\HLC_soil_and_veg\Tables_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alissa.iverson\.ssh\HLC_soil_and_veg\Tables_data\Species Lists_Proportions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C00AAF-D902-4644-B152-90E3BD02B48B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513214DE-ABF7-4650-AA08-7F8607A8F1BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="130">
   <si>
     <t>VegHit_SoilSurfaceHit</t>
   </si>
@@ -406,6 +406,18 @@
   </si>
   <si>
     <t>WIS</t>
+  </si>
+  <si>
+    <t>Prop AG</t>
+  </si>
+  <si>
+    <t>Prop BG</t>
+  </si>
+  <si>
+    <t>All Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All Species</t>
   </si>
 </sst>
 </file>
@@ -429,24 +441,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -513,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,16 +531,26 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3134,7 +3144,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5386,8 +5396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9ECD92-9837-4DE8-8B6F-D750BB5C44F3}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5402,25 +5412,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="14" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7306,6 +7316,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7313,404 +7324,404 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A8930C-9678-4A20-BABC-8329787EAE62}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>124</v>
+      <c r="F1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8">
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12">
         <v>0.29674306393244881</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="12">
         <v>0.14285714299999999</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="12">
         <v>0.12183353437876961</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12">
         <v>4.4417766999999997E-2</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="12">
         <v>0.10253317249698431</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
+      <c r="E5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
         <v>6.3932448733413749E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12">
         <v>4.2219541616405308E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="12">
         <v>1.9207683E-2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="12">
         <v>3.9806996381182153E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12">
         <v>3.2569360675512672E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="12">
         <v>1.2004800000000001E-3</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="12">
         <v>3.015681544028951E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="12">
         <v>4.0816326999999999E-2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="12">
         <v>2.774427020506634E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="12">
         <v>1.2004802E-2</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="12">
         <v>2.653799758745477E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="B12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="12">
         <v>3.6014409999999999E-3</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="12">
         <v>1.5681544028950539E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8">
+      <c r="B13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
         <v>1.5681544028950539E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="12">
         <v>2.6410564000000001E-2</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="12">
         <v>1.4475271411338961E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8">
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
         <v>1.4475271411338961E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="E16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="12">
         <v>2.4009600000000002E-3</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="12">
         <v>1.4475271411338961E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8">
+      <c r="B17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
         <v>1.326899879372738E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8">
+      <c r="E18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
         <v>1.0856453558504221E-2</v>
       </c>
     </row>
@@ -9239,5 +9250,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>